--- a/biology/Mycologie/Meripilus_applanatus/Meripilus_applanatus.xlsx
+++ b/biology/Mycologie/Meripilus_applanatus/Meripilus_applanatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meripilus applanatus est une espèce de champignons de la famille des Meripilaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le basidiome est stipité latéralement et est flabelliforme (en éventail) et aplanés d'où son nom. La surface du chapeau est presque glabre à mate et irrégulièrement ridée avec un bord fin, aiguë et facilement cassable. Sa couleur est presque noire. Les 14 à 16 pores par millimètre ont une surface noirâtre, et sont anguleux. Les dissépiments sont fins et entiers. Les tubes sont presque noirs et fragiles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le basidiome est stipité latéralement et est flabelliforme (en éventail) et aplanés d'où son nom. La surface du chapeau est presque glabre à mate et irrégulièrement ridée avec un bord fin, aiguë et facilement cassable. Sa couleur est presque noire. Les 14 à 16 pores par millimètre ont une surface noirâtre, et sont anguleux. Les dissépiments sont fins et entiers. Les tubes sont presque noirs et fragiles.
 C'est un champignon à hyphes monomitiques, c'est-à-dire constitué uniquement d'hyphes génératives, à parois minces et sans connexions mais partiellement agglutinées. Leur taille est de 2,5 à 5 µm de large (exceptionnellement jusqu'à 8 µm). Le contexte des hyphes est à paroi fine à épaisse, de 3 à 25 µm de large.
-Les basidiospores sont presque globuleuses, hyalines, et  à parois minces. Elles se présentent sous une taille de 3,5 à 4,5 µm de long pour 3 à 4 µm de large[1].
-Cette espèce se distingue de Meripilus giganteus (connu sous le nom de Polypore géant) par ses spores plus petites et globuleuses, ainsi que par ses pores peu à pas visibles à l’œil nu et typiquement des basidiomes plus petits et plus fins[2]. Elle se distingue aussi de Meripilus sumstinei et Meripilus lentifrodonsa par ses spores plus petites et globuleuses[2].
-Meripilus applanatus a été décrit en même temps que l'espèce Meripilus maculatus et Meripilus villosulus[3].
+Les basidiospores sont presque globuleuses, hyalines, et  à parois minces. Elles se présentent sous une taille de 3,5 à 4,5 µm de long pour 3 à 4 µm de large.
+Cette espèce se distingue de Meripilus giganteus (connu sous le nom de Polypore géant) par ses spores plus petites et globuleuses, ainsi que par ses pores peu à pas visibles à l’œil nu et typiquement des basidiomes plus petits et plus fins. Elle se distingue aussi de Meripilus sumstinei et Meripilus lentifrodonsa par ses spores plus petites et globuleuses.
+Meripilus applanatus a été décrit en même temps que l'espèce Meripilus maculatus et Meripilus villosulus.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Meripilus applanatus (E.J.H. Corner, 1984)[4],[5]. L'holotype a été décrit à partir d'un spécimen prélevé le 5 septembre 1965 sur l'île Kolombangara de l'archipel des Salomon à une altitude de 600 à 700 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Meripilus applanatus (E.J.H. Corner, 1984),. L'holotype a été décrit à partir d'un spécimen prélevé le 5 septembre 1965 sur l'île Kolombangara de l'archipel des Salomon à une altitude de 600 à 700 m.
 </t>
         </is>
       </c>
